--- a/sample_matlist.xlsx
+++ b/sample_matlist.xlsx
@@ -2,155 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinnamaneniJa\Desktop\fmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="21555" windowHeight="9375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_matlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>SW/FW</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nnual/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>erpetual</t>
-    </r>
-  </si>
-  <si>
-    <t>Cost Per Unit</t>
-  </si>
-  <si>
-    <t>Tool Name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tatic/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ynamic/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ormal</t>
-    </r>
-  </si>
-  <si>
-    <t>Date of Last Purchase</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Vendor Agent Name</t>
-  </si>
-  <si>
     <t>Vendor #</t>
   </si>
   <si>
@@ -158,16 +31,242 @@
   </si>
   <si>
     <t>Team POC</t>
+  </si>
+  <si>
+    <t>Tool 2</t>
+  </si>
+  <si>
+    <t>Tool 3</t>
+  </si>
+  <si>
+    <t>Tool 4</t>
+  </si>
+  <si>
+    <t>Tool 5</t>
+  </si>
+  <si>
+    <t>Tool 6</t>
+  </si>
+  <si>
+    <t>Tool 1</t>
+  </si>
+  <si>
+    <t>SW|FW</t>
+  </si>
+  <si>
+    <t>Type(S|D|F)</t>
+  </si>
+  <si>
+    <t>LT(A|P)</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>#Abbreviation meanings</t>
+  </si>
+  <si>
+    <t>Software or Firmware Tool</t>
+  </si>
+  <si>
+    <t>S|D|F</t>
+  </si>
+  <si>
+    <t>Static, Dynamic, or Formal Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT(A|P) </t>
+  </si>
+  <si>
+    <t>License Type (Annual /Perpetual)</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU </t>
+  </si>
+  <si>
+    <t>Cost Per Unit/License</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC </t>
+  </si>
+  <si>
+    <t>Line item cost</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Company/Vendor Name</t>
+  </si>
+  <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>Company/Vendor agent name</t>
+  </si>
+  <si>
+    <t>The FMP program will filter based on column headings in row 1</t>
+  </si>
+  <si>
+    <t>The FMP program will only display the columns listed above</t>
+  </si>
+  <si>
+    <t>The FMP program requires 1) PN 2) LT(A|P) 3) PD 4) CPU 5)QTY 6)LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN </t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,16 +279,196 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,16 +476,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,67 +956,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <f>F2*G2</f>
+        <v>100000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H7" si="0">F3*G3</f>
+        <v>100000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="O7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <f>F8*G8</f>
+        <v>100000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H20" si="1">F9*G9</f>
+        <v>100000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5060.6060606060601</v>
+      </c>
+      <c r="G14">
+        <v>6.5757575757575797</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>33277.318640955018</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4941.7249417249404</v>
+      </c>
+      <c r="G15">
+        <v>6.25407925407925</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>30905.939437407942</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4822.8438228438299</v>
+      </c>
+      <c r="G16">
+        <v>5.9324009324009301</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>28611.043191462802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4703.9627039627103</v>
+      </c>
+      <c r="G17">
+        <v>5.6107226107226102</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>26392.629903119447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4585.0815850815898</v>
+      </c>
+      <c r="G18">
+        <v>5.2890442890442904</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>24250.699572377926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4466.2004662004701</v>
+      </c>
+      <c r="G19">
+        <v>4.9673659673659696</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>22185.252199238243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4347.3193473193496</v>
+      </c>
+      <c r="G20">
+        <v>4.6456876456876399</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>20196.287783700358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4228.43822843823</v>
+      </c>
+      <c r="G21">
+        <v>4.32400932400932</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21:H26" si="2">F21*G21</f>
+        <v>18283.806325764359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43497</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4109.5571095571104</v>
+      </c>
+      <c r="G22">
+        <v>4.0023310023310001</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>16447.807825430198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3990.6759906759899</v>
+      </c>
+      <c r="G23">
+        <v>3.6806526806526798</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>14688.29228269787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3871.7948717948698</v>
+      </c>
+      <c r="G24">
+        <v>3.3589743589743599</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>13005.259697567386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43586</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3752.9137529137602</v>
+      </c>
+      <c r="G25">
+        <v>3.0372960372960298</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>11398.710070038735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3634.0326340326401</v>
+      </c>
+      <c r="G26">
+        <v>2.7156177156177099</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>9868.6434001119269</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>